--- a/medicine/Enfance/Émilie_et_le_Crayon_magique/Émilie_et_le_Crayon_magique.xlsx
+++ b/medicine/Enfance/Émilie_et_le_Crayon_magique/Émilie_et_le_Crayon_magique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89milie_et_le_Crayon_magique</t>
+          <t>Émilie_et_le_Crayon_magique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Émilie et le crayon magique est un roman de littérature d'enfance et de jeunesse écrit par Henriette Bichonnier.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89milie_et_le_Crayon_magique</t>
+          <t>Émilie_et_le_Crayon_magique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>L'héroïne</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Émilie est une fillette passionnée d'histoire, en particulier du Moyen Âge. Et elle est très déçue lorsque Madame Remuffat, l'institutrice, interrompt le récit des aventures de Messire Robert de Franche Comté au moment où la cloche sonne pour indiquer la fin des cours.
 Intrépide et indépendante, Émilie n'en fait qu'à sa tête. Lorsqu'elle découvre un crayon qui parle, cela ne l'effraye pas du tout. Au contraire, elle a hâte de vérifier les pouvoirs qu'il prétend avoir. Elle s'enferme dans sa chambre, commence à dessiner, à la grande frayeur du crayon qui, lui, a peur de tout.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89milie_et_le_Crayon_magique</t>
+          <t>Émilie_et_le_Crayon_magique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Messire Robert de Franche Comté
 Dame Isabeau, sa femme
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89milie_et_le_Crayon_magique</t>
+          <t>Émilie_et_le_Crayon_magique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Le principe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le crayon magique a une simple mine noire à un bout et une gomme qui efface à l'autre bout. Les dessins qu'on réalise avec lui prennent vie. Pour le suspense, il faut qu'à un moment ou à un autre, l'héroïne perde le crayon, et qu'elle se trouve coincée dans l'univers qu'elle a créé sans autres pouvoirs que son imagination et ses astuces.
 Ce même principe se retrouvera dans Les Voyages de l'Emiliana, où Émilie dessine cette fois un vaisseau spatial nommé l'Emiliana et s'envole avec un matériel sophistiqué de son invention.
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89milie_et_le_Crayon_magique</t>
+          <t>Émilie_et_le_Crayon_magique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,7 +637,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir trouvé par hasard un crayon qui parle et qui prétend avoir le pouvoir de rendre vrai tout ce qu'il dessine, Émilie court dans sa chambre pour vérifier ses dires. Elle commence par dessiner un goûter idéal : brioche, confiture... et en effet le dessin se matérialise en trois dimensions. Émilie mange le goûter. Puis elle dessine un fauve, ce qui lui permet de découvrir la deuxième fonction du crayon : sa gomme magique à l'opposé de la mine, qui permet d'effacer les dessins dangereux. Le fauve disparu, la petite fille se souvient qu'elle doit écrire la suite des aventures de Messire Robert de Franche Comté, mais pour se mettre dans l'ambiance, elle dessine un château fort, et deux cavaliers qui se présentent à la porte. À la grande frayeur du crayon, le château se matérialise et Émilie n'a qu'une envie, c'est d'y entrer. Elle arrive au moment où se déroule une fête précédant un tournoi important : le chevalier Népomucène est chargé de défendre les couleurs de Messire Robert, tandis que le chevalier Courtot défend celles de Messire Anselme. L'enjeu est important : celui qui gagnera le tournoi s'appropriera les terres du perdant. Népomucène étant tombé malade, Émilie va le remplacer. Puis pour gagner le tournoi elle dessine une lance avec un gaz qui endort l'adversaire. Finalement Émilie sort vainqueur du tournoi, tout le monde se précipite sur elle. Émilie met sa main dans la poche de son jean pour en sortir le crayon, mais a son grand étonnement il a disparu. Elle se dit qu'elle l'a peut-être perdu. Alors pour ne pas être en retard à la maison, elle dit au revoir a ses nouveaux amis et s'en va. Mais au moment où elle sort du château, elle arrive dans la campagne paysanne.
 </t>
@@ -632,7 +652,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89milie_et_le_Crayon_magique</t>
+          <t>Émilie_et_le_Crayon_magique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -650,7 +670,9 @@
           <t>Exploitation pédagogique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Introduction à l'univers du Moyen Âge
 Étude d'un château fort
